--- a/kgss/codebook.xlsx
+++ b/kgss/codebook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>임시직</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,6 +428,25 @@
   </si>
   <si>
     <t>BLOODTYP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPINCMR</t>
+  </si>
+  <si>
+    <t>배우자 취업 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상용직</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,6 +681,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -985,10 +1003,10 @@
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
@@ -997,8 +1015,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1234,7 +1252,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
@@ -1244,471 +1262,493 @@
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="11">
         <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D33" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="A35" s="14"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="11">
-        <v>3</v>
+      <c r="A36" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D40" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="D44" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="D45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="D49" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="D50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="11">
         <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="8">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="9">
-        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F54" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="B57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="11">
-        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D58" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D59" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
+      <c r="D63" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="D64" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="11">
-        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="B68" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="C68" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="8">
-        <v>1</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="F68" s="9">
         <v>5</v>
       </c>
     </row>
